--- a/A RENDRE/MoneyThoring/Documentation/Journal_Travail_Helena.xlsx
+++ b/A RENDRE/MoneyThoring/Documentation/Journal_Travail_Helena.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78B0B17-D26D-421B-9BA7-195B6416A44B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C54213-B8EF-46F9-BEEE-74B2C5083A48}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -511,22 +511,49 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -540,33 +567,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -878,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -894,10 +894,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="43"/>
+      <c r="B2" s="52"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
@@ -929,11 +929,11 @@
       <c r="C5" s="22">
         <v>0.5</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="49">
         <f>SUM(C5:C6)</f>
         <v>1.5</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="37">
         <v>1</v>
       </c>
     </row>
@@ -947,8 +947,8 @@
       <c r="C6" s="22">
         <v>1</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="38"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="39"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
@@ -960,11 +960,11 @@
       <c r="C7" s="23">
         <v>0.5</v>
       </c>
-      <c r="D7" s="44">
+      <c r="D7" s="46">
         <f>SUM(C7:C11)</f>
         <v>9.25</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="43">
         <v>2</v>
       </c>
     </row>
@@ -978,8 +978,8 @@
       <c r="C8" s="23">
         <v>1</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="35"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="44"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
@@ -991,8 +991,8 @@
       <c r="C9" s="23">
         <v>0.25</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="35"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="44"/>
     </row>
     <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
@@ -1004,8 +1004,8 @@
       <c r="C10" s="23">
         <v>1.5</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="35"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="44"/>
     </row>
     <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
@@ -1017,8 +1017,8 @@
       <c r="C11" s="23">
         <v>6</v>
       </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="35"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="44"/>
     </row>
     <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
@@ -1030,15 +1030,15 @@
       <c r="C12" s="22">
         <v>1.75</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D12" s="49">
         <f>SUM(C12:C13)</f>
         <v>4.25</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E12" s="37">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>43170</v>
       </c>
@@ -1048,10 +1048,10 @@
       <c r="C13" s="22">
         <v>2.5</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="38"/>
-    </row>
-    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.3">
+      <c r="D13" s="51"/>
+      <c r="E13" s="39"/>
+    </row>
+    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>43177</v>
       </c>
@@ -1079,15 +1079,15 @@
       <c r="C15" s="24">
         <v>1.75</v>
       </c>
-      <c r="D15" s="40">
+      <c r="D15" s="49">
         <f>SUM(C15:C16)</f>
         <v>3.25</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="37">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>43184</v>
       </c>
@@ -1097,8 +1097,8 @@
       <c r="C16" s="24">
         <v>1.5</v>
       </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="38"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="39"/>
     </row>
     <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
@@ -1110,11 +1110,11 @@
       <c r="C17" s="23">
         <v>1.25</v>
       </c>
-      <c r="D17" s="44">
+      <c r="D17" s="46">
         <f>SUM(C17:C18)</f>
         <v>3</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="43">
         <v>6</v>
       </c>
     </row>
@@ -1128,8 +1128,8 @@
       <c r="C18" s="23">
         <v>1.75</v>
       </c>
-      <c r="D18" s="46"/>
-      <c r="E18" s="39"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="45"/>
     </row>
     <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
@@ -1159,11 +1159,11 @@
       <c r="C20" s="23">
         <v>1</v>
       </c>
-      <c r="D20" s="44">
+      <c r="D20" s="46">
         <f>SUM(C20:C23)</f>
         <v>4</v>
       </c>
-      <c r="E20" s="34">
+      <c r="E20" s="43">
         <v>8</v>
       </c>
     </row>
@@ -1177,8 +1177,8 @@
       <c r="C21" s="23">
         <v>2</v>
       </c>
-      <c r="D21" s="45"/>
-      <c r="E21" s="35"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="44"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
@@ -1190,8 +1190,8 @@
       <c r="C22" s="23">
         <v>0.5</v>
       </c>
-      <c r="D22" s="45"/>
-      <c r="E22" s="35"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
@@ -1203,8 +1203,8 @@
       <c r="C23" s="23">
         <v>0.5</v>
       </c>
-      <c r="D23" s="46"/>
-      <c r="E23" s="35"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="44"/>
     </row>
     <row r="24" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
@@ -1216,11 +1216,11 @@
       <c r="C24" s="24">
         <v>2.25</v>
       </c>
-      <c r="D24" s="40">
+      <c r="D24" s="49">
         <f>SUM(C24:C26)</f>
         <v>3.25</v>
       </c>
-      <c r="E24" s="36">
+      <c r="E24" s="37">
         <v>9</v>
       </c>
     </row>
@@ -1234,8 +1234,8 @@
       <c r="C25" s="24">
         <v>0.5</v>
       </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="37"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="38"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
@@ -1247,10 +1247,10 @@
       <c r="C26" s="24">
         <v>0.5</v>
       </c>
-      <c r="D26" s="42"/>
-      <c r="E26" s="38"/>
-    </row>
-    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D26" s="51"/>
+      <c r="E26" s="39"/>
+    </row>
+    <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>43213</v>
       </c>
@@ -1260,11 +1260,11 @@
       <c r="C27" s="23">
         <v>3</v>
       </c>
-      <c r="D27" s="44">
+      <c r="D27" s="46">
         <f>SUM(C27:C29)</f>
         <v>10.5</v>
       </c>
-      <c r="E27" s="34">
+      <c r="E27" s="43">
         <v>10</v>
       </c>
     </row>
@@ -1278,8 +1278,8 @@
       <c r="C28" s="23">
         <v>4.25</v>
       </c>
-      <c r="D28" s="45"/>
-      <c r="E28" s="35"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="44"/>
     </row>
     <row r="29" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
@@ -1291,8 +1291,8 @@
       <c r="C29" s="23">
         <v>3.25</v>
       </c>
-      <c r="D29" s="46"/>
-      <c r="E29" s="35"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="44"/>
     </row>
     <row r="30" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
@@ -1304,11 +1304,11 @@
       <c r="C30" s="24">
         <v>3.25</v>
       </c>
-      <c r="D30" s="40">
+      <c r="D30" s="49">
         <f>SUM(C30:C33)</f>
         <v>12</v>
       </c>
-      <c r="E30" s="36">
+      <c r="E30" s="37">
         <v>11</v>
       </c>
     </row>
@@ -1322,8 +1322,8 @@
       <c r="C31" s="24">
         <v>4</v>
       </c>
-      <c r="D31" s="41"/>
-      <c r="E31" s="37"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="38"/>
     </row>
     <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
@@ -1335,10 +1335,10 @@
       <c r="C32" s="24">
         <v>0.5</v>
       </c>
-      <c r="D32" s="41"/>
-      <c r="E32" s="37"/>
-    </row>
-    <row r="33" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D32" s="50"/>
+      <c r="E32" s="38"/>
+    </row>
+    <row r="33" spans="1:13" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>43226</v>
       </c>
@@ -1348,10 +1348,10 @@
       <c r="C33" s="22">
         <v>4.25</v>
       </c>
-      <c r="D33" s="42"/>
-      <c r="E33" s="37"/>
-    </row>
-    <row r="34" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="D33" s="51"/>
+      <c r="E33" s="38"/>
+    </row>
+    <row r="34" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>43227</v>
       </c>
@@ -1361,11 +1361,11 @@
       <c r="C34" s="23">
         <v>5</v>
       </c>
-      <c r="D34" s="50">
+      <c r="D34" s="40">
         <f>SUM(C34:C38)</f>
         <v>18.25</v>
       </c>
-      <c r="E34" s="34">
+      <c r="E34" s="43">
         <v>12</v>
       </c>
     </row>
@@ -1379,8 +1379,8 @@
       <c r="C35" s="23">
         <v>3.75</v>
       </c>
-      <c r="D35" s="51"/>
-      <c r="E35" s="35"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="44"/>
     </row>
     <row r="36" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
@@ -1392,8 +1392,8 @@
       <c r="C36" s="23">
         <v>2</v>
       </c>
-      <c r="D36" s="51"/>
-      <c r="E36" s="35"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="44"/>
     </row>
     <row r="37" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
@@ -1405,8 +1405,8 @@
       <c r="C37" s="23">
         <v>1.75</v>
       </c>
-      <c r="D37" s="51"/>
-      <c r="E37" s="35"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="44"/>
     </row>
     <row r="38" spans="1:13" ht="144" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
@@ -1418,8 +1418,8 @@
       <c r="C38" s="23">
         <v>5.75</v>
       </c>
-      <c r="D38" s="52"/>
-      <c r="E38" s="39"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="45"/>
     </row>
     <row r="39" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A39" s="10">
@@ -1431,11 +1431,11 @@
       <c r="C39" s="24">
         <v>5</v>
       </c>
-      <c r="D39" s="47">
+      <c r="D39" s="34">
         <f>SUM(C39:C43)</f>
         <v>35.25</v>
       </c>
-      <c r="E39" s="36">
+      <c r="E39" s="37">
         <v>13</v>
       </c>
     </row>
@@ -1449,8 +1449,8 @@
       <c r="C40" s="24">
         <v>5.75</v>
       </c>
-      <c r="D40" s="48"/>
-      <c r="E40" s="37"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="38"/>
     </row>
     <row r="41" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A41" s="10">
@@ -1462,8 +1462,8 @@
       <c r="C41" s="24">
         <v>10.25</v>
       </c>
-      <c r="D41" s="48"/>
-      <c r="E41" s="37"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="38"/>
     </row>
     <row r="42" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="10">
@@ -1475,8 +1475,8 @@
       <c r="C42" s="24">
         <v>4</v>
       </c>
-      <c r="D42" s="48"/>
-      <c r="E42" s="37"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="38"/>
     </row>
     <row r="43" spans="1:13" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10">
@@ -1488,8 +1488,8 @@
       <c r="C43" s="24">
         <v>10.25</v>
       </c>
-      <c r="D43" s="49"/>
-      <c r="E43" s="38"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="39"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B44" s="5" t="s">
@@ -1592,12 +1592,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="E39:E43"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D15:D16"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="D20:D23"/>
@@ -1605,15 +1604,16 @@
     <mergeCell ref="D27:D29"/>
     <mergeCell ref="E7:E11"/>
     <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D15:D16"/>
     <mergeCell ref="E20:E23"/>
     <mergeCell ref="E24:E26"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="E17:E18"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="E39:E43"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="E30:E33"/>
     <mergeCell ref="D30:D33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/A RENDRE/MoneyThoring/Documentation/Journal_Travail_Helena.xlsx
+++ b/A RENDRE/MoneyThoring/Documentation/Journal_Travail_Helena.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C54213-B8EF-46F9-BEEE-74B2C5083A48}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35998A1-E3A4-437E-8844-B3346E1CE6B7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -511,62 +511,62 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -878,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -894,10 +894,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="52"/>
+      <c r="B2" s="34"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
@@ -929,11 +929,11 @@
       <c r="C5" s="22">
         <v>0.5</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5" s="35">
         <f>SUM(C5:C6)</f>
         <v>1.5</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="40">
         <v>1</v>
       </c>
     </row>
@@ -947,8 +947,8 @@
       <c r="C6" s="22">
         <v>1</v>
       </c>
-      <c r="D6" s="51"/>
-      <c r="E6" s="39"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="41"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
@@ -960,7 +960,7 @@
       <c r="C7" s="23">
         <v>0.5</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7" s="37">
         <f>SUM(C7:C11)</f>
         <v>9.25</v>
       </c>
@@ -978,7 +978,7 @@
       <c r="C8" s="23">
         <v>1</v>
       </c>
-      <c r="D8" s="48"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="44"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -991,7 +991,7 @@
       <c r="C9" s="23">
         <v>0.25</v>
       </c>
-      <c r="D9" s="48"/>
+      <c r="D9" s="38"/>
       <c r="E9" s="44"/>
     </row>
     <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1004,7 +1004,7 @@
       <c r="C10" s="23">
         <v>1.5</v>
       </c>
-      <c r="D10" s="48"/>
+      <c r="D10" s="38"/>
       <c r="E10" s="44"/>
     </row>
     <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -1017,7 +1017,7 @@
       <c r="C11" s="23">
         <v>6</v>
       </c>
-      <c r="D11" s="47"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="44"/>
     </row>
     <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1030,11 +1030,11 @@
       <c r="C12" s="22">
         <v>1.75</v>
       </c>
-      <c r="D12" s="49">
+      <c r="D12" s="35">
         <f>SUM(C12:C13)</f>
         <v>4.25</v>
       </c>
-      <c r="E12" s="37">
+      <c r="E12" s="40">
         <v>3</v>
       </c>
     </row>
@@ -1048,8 +1048,8 @@
       <c r="C13" s="22">
         <v>2.5</v>
       </c>
-      <c r="D13" s="51"/>
-      <c r="E13" s="39"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="41"/>
     </row>
     <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
@@ -1079,11 +1079,11 @@
       <c r="C15" s="24">
         <v>1.75</v>
       </c>
-      <c r="D15" s="49">
+      <c r="D15" s="35">
         <f>SUM(C15:C16)</f>
         <v>3.25</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E15" s="40">
         <v>5</v>
       </c>
     </row>
@@ -1097,8 +1097,8 @@
       <c r="C16" s="24">
         <v>1.5</v>
       </c>
-      <c r="D16" s="51"/>
-      <c r="E16" s="39"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="41"/>
     </row>
     <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
@@ -1110,7 +1110,7 @@
       <c r="C17" s="23">
         <v>1.25</v>
       </c>
-      <c r="D17" s="46">
+      <c r="D17" s="37">
         <f>SUM(C17:C18)</f>
         <v>3</v>
       </c>
@@ -1128,8 +1128,8 @@
       <c r="C18" s="23">
         <v>1.75</v>
       </c>
-      <c r="D18" s="47"/>
-      <c r="E18" s="45"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="46"/>
     </row>
     <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
@@ -1159,7 +1159,7 @@
       <c r="C20" s="23">
         <v>1</v>
       </c>
-      <c r="D20" s="46">
+      <c r="D20" s="37">
         <f>SUM(C20:C23)</f>
         <v>4</v>
       </c>
@@ -1177,7 +1177,7 @@
       <c r="C21" s="23">
         <v>2</v>
       </c>
-      <c r="D21" s="48"/>
+      <c r="D21" s="38"/>
       <c r="E21" s="44"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1190,7 +1190,7 @@
       <c r="C22" s="23">
         <v>0.5</v>
       </c>
-      <c r="D22" s="48"/>
+      <c r="D22" s="38"/>
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1203,7 +1203,7 @@
       <c r="C23" s="23">
         <v>0.5</v>
       </c>
-      <c r="D23" s="47"/>
+      <c r="D23" s="39"/>
       <c r="E23" s="44"/>
     </row>
     <row r="24" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1216,11 +1216,11 @@
       <c r="C24" s="24">
         <v>2.25</v>
       </c>
-      <c r="D24" s="49">
+      <c r="D24" s="35">
         <f>SUM(C24:C26)</f>
         <v>3.25</v>
       </c>
-      <c r="E24" s="37">
+      <c r="E24" s="40">
         <v>9</v>
       </c>
     </row>
@@ -1234,8 +1234,8 @@
       <c r="C25" s="24">
         <v>0.5</v>
       </c>
-      <c r="D25" s="50"/>
-      <c r="E25" s="38"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="45"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
@@ -1247,8 +1247,8 @@
       <c r="C26" s="24">
         <v>0.5</v>
       </c>
-      <c r="D26" s="51"/>
-      <c r="E26" s="39"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="41"/>
     </row>
     <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
@@ -1260,7 +1260,7 @@
       <c r="C27" s="23">
         <v>3</v>
       </c>
-      <c r="D27" s="46">
+      <c r="D27" s="37">
         <f>SUM(C27:C29)</f>
         <v>10.5</v>
       </c>
@@ -1278,7 +1278,7 @@
       <c r="C28" s="23">
         <v>4.25</v>
       </c>
-      <c r="D28" s="48"/>
+      <c r="D28" s="38"/>
       <c r="E28" s="44"/>
     </row>
     <row r="29" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -1291,7 +1291,7 @@
       <c r="C29" s="23">
         <v>3.25</v>
       </c>
-      <c r="D29" s="47"/>
+      <c r="D29" s="39"/>
       <c r="E29" s="44"/>
     </row>
     <row r="30" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -1304,11 +1304,11 @@
       <c r="C30" s="24">
         <v>3.25</v>
       </c>
-      <c r="D30" s="49">
+      <c r="D30" s="35">
         <f>SUM(C30:C33)</f>
         <v>12</v>
       </c>
-      <c r="E30" s="37">
+      <c r="E30" s="40">
         <v>11</v>
       </c>
     </row>
@@ -1322,8 +1322,8 @@
       <c r="C31" s="24">
         <v>4</v>
       </c>
-      <c r="D31" s="50"/>
-      <c r="E31" s="38"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="45"/>
     </row>
     <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
@@ -1335,8 +1335,8 @@
       <c r="C32" s="24">
         <v>0.5</v>
       </c>
-      <c r="D32" s="50"/>
-      <c r="E32" s="38"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="45"/>
     </row>
     <row r="33" spans="1:13" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
@@ -1348,8 +1348,8 @@
       <c r="C33" s="22">
         <v>4.25</v>
       </c>
-      <c r="D33" s="51"/>
-      <c r="E33" s="38"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="45"/>
     </row>
     <row r="34" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
@@ -1361,7 +1361,7 @@
       <c r="C34" s="23">
         <v>5</v>
       </c>
-      <c r="D34" s="40">
+      <c r="D34" s="50">
         <f>SUM(C34:C38)</f>
         <v>18.25</v>
       </c>
@@ -1379,7 +1379,7 @@
       <c r="C35" s="23">
         <v>3.75</v>
       </c>
-      <c r="D35" s="41"/>
+      <c r="D35" s="51"/>
       <c r="E35" s="44"/>
     </row>
     <row r="36" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
@@ -1392,7 +1392,7 @@
       <c r="C36" s="23">
         <v>2</v>
       </c>
-      <c r="D36" s="41"/>
+      <c r="D36" s="51"/>
       <c r="E36" s="44"/>
     </row>
     <row r="37" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
@@ -1405,7 +1405,7 @@
       <c r="C37" s="23">
         <v>1.75</v>
       </c>
-      <c r="D37" s="41"/>
+      <c r="D37" s="51"/>
       <c r="E37" s="44"/>
     </row>
     <row r="38" spans="1:13" ht="144" x14ac:dyDescent="0.3">
@@ -1418,8 +1418,8 @@
       <c r="C38" s="23">
         <v>5.75</v>
       </c>
-      <c r="D38" s="42"/>
-      <c r="E38" s="45"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="46"/>
     </row>
     <row r="39" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A39" s="10">
@@ -1431,11 +1431,11 @@
       <c r="C39" s="24">
         <v>5</v>
       </c>
-      <c r="D39" s="34">
+      <c r="D39" s="47">
         <f>SUM(C39:C43)</f>
         <v>35.25</v>
       </c>
-      <c r="E39" s="37">
+      <c r="E39" s="40">
         <v>13</v>
       </c>
     </row>
@@ -1449,8 +1449,8 @@
       <c r="C40" s="24">
         <v>5.75</v>
       </c>
-      <c r="D40" s="35"/>
-      <c r="E40" s="38"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="45"/>
     </row>
     <row r="41" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A41" s="10">
@@ -1462,8 +1462,8 @@
       <c r="C41" s="24">
         <v>10.25</v>
       </c>
-      <c r="D41" s="35"/>
-      <c r="E41" s="38"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="45"/>
     </row>
     <row r="42" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="10">
@@ -1475,8 +1475,8 @@
       <c r="C42" s="24">
         <v>4</v>
       </c>
-      <c r="D42" s="35"/>
-      <c r="E42" s="38"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="45"/>
     </row>
     <row r="43" spans="1:13" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10">
@@ -1488,8 +1488,8 @@
       <c r="C43" s="24">
         <v>10.25</v>
       </c>
-      <c r="D43" s="36"/>
-      <c r="E43" s="39"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="41"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B44" s="5" t="s">
@@ -1592,11 +1592,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="E39:E43"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="D30:D33"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="D20:D23"/>
@@ -1608,15 +1610,24 @@
     <mergeCell ref="E24:E26"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="E17:E18"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="E39:E43"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D15:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader xml:space="preserve">&amp;L
+________________________________________
+&amp;C
+________________________________________
+&amp;RJournal de travail - Héléna Reymond
+________________________________________
+</oddHeader>
+    <oddFooter xml:space="preserve">&amp;C&amp;K09-024&amp;P
+</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>